--- a/premise_new_variables.xlsx
+++ b/premise_new_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\premise-witch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322AE7B9-404D-47D5-BE30-543555904166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45166C10-611A-423D-AF27-A9B936E9C32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{274167DD-F42C-42F5-A05E-3A93CAD29418}"/>
   </bookViews>
@@ -975,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06881874-5459-42AA-9D86-4DA0B306C8E5}">
-  <dimension ref="A1:I1006"/>
+  <dimension ref="A1:I1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2065,64 +2065,106 @@
       </c>
       <c r="I46" s="9"/>
     </row>
-    <row r="49" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="19"/>
+    </row>
+    <row r="48" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="19"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="C49" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="20" t="s">
+      <c r="D49" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>118</v>
-      </c>
+      <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="20" t="s">
+      <c r="D50" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H50" s="19"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>109</v>
@@ -2143,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>109</v>
@@ -2155,47 +2197,51 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+    <row r="53" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="21" t="s">
-        <v>100</v>
+      <c r="D53" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="16" t="s">
+      <c r="F53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="H53" s="19"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="21" t="s">
-        <v>117</v>
+      <c r="D54" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G54" s="16" t="s">
+      <c r="F54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
@@ -2205,8 +2251,8 @@
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>105</v>
+      <c r="D55" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>109</v>
@@ -2218,7 +2264,6 @@
         <v>82</v>
       </c>
       <c r="H55" s="19"/>
-      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
@@ -2228,8 +2273,8 @@
       <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>106</v>
+      <c r="D56" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>109</v>
@@ -2241,7 +2286,6 @@
         <v>82</v>
       </c>
       <c r="H56" s="19"/>
-      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
@@ -2252,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>109</v>
@@ -2274,7 +2318,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>109</v>
@@ -2296,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>109</v>
@@ -2318,7 +2362,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>109</v>
@@ -2340,7 +2384,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>109</v>
@@ -2362,7 +2406,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>109</v>
@@ -2384,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>109</v>
@@ -2406,7 +2450,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>109</v>
@@ -2428,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>109</v>
@@ -2450,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>109</v>
@@ -2472,7 +2516,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>109</v>
@@ -2494,7 +2538,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>109</v>
@@ -2516,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>109</v>
@@ -2538,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>109</v>
@@ -2560,7 +2604,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>109</v>
@@ -2582,7 +2626,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>109</v>
@@ -2604,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>109</v>
@@ -2626,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>109</v>
@@ -2648,7 +2692,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>109</v>
@@ -2670,7 +2714,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>109</v>
@@ -2692,7 +2736,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>109</v>
@@ -2714,7 +2758,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>109</v>
@@ -2736,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>109</v>
@@ -2758,7 +2802,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>109</v>
@@ -2780,7 +2824,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>109</v>
@@ -2802,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>109</v>
@@ -2824,7 +2868,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>109</v>
@@ -2846,7 +2890,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>109</v>
@@ -2868,7 +2912,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>109</v>
@@ -2890,7 +2934,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>109</v>
@@ -2912,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>109</v>
@@ -2934,7 +2978,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>109</v>
@@ -2956,7 +3000,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>109</v>
@@ -2978,7 +3022,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>109</v>
@@ -3000,7 +3044,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>109</v>
@@ -3014,68 +3058,40 @@
       <c r="H91" s="19"/>
     </row>
     <row r="92" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="19" t="s">
-        <v>83</v>
-      </c>
+      <c r="A92" s="19"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="19"/>
     </row>
     <row r="93" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
-        <v>83</v>
-      </c>
+      <c r="A93" s="19"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="19"/>
     </row>
-    <row r="94" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="19"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="19"/>
-    </row>
-    <row r="95" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="19"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="19"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B96" s="13"/>
@@ -10348,22 +10364,6 @@
       <c r="E1004" s="13"/>
       <c r="F1004" s="13"/>
       <c r="G1004" s="13"/>
-    </row>
-    <row r="1005" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1005" s="13"/>
-      <c r="C1005" s="13"/>
-      <c r="D1005" s="13"/>
-      <c r="E1005" s="13"/>
-      <c r="F1005" s="13"/>
-      <c r="G1005" s="13"/>
-    </row>
-    <row r="1006" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1006" s="13"/>
-      <c r="C1006" s="13"/>
-      <c r="D1006" s="13"/>
-      <c r="E1006" s="13"/>
-      <c r="F1006" s="13"/>
-      <c r="G1006" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{06881874-5459-42AA-9D86-4DA0B306C8E5}">
